--- a/downloaded_files/MTHS102_Tutorial-35066.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35066.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -33,6 +33,15 @@
     <x:t>Date</x:t>
   </x:si>
   <x:si>
+    <x:t>4250161</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ابراهيم حسن كامل احمد قاسم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Ibrahim Hassan Kamel Ahmed Qasim</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240204</x:t>
   </x:si>
   <x:si>
@@ -267,6 +276,15 @@
     <x:t>Omar Mohsen</x:t>
   </x:si>
   <x:si>
+    <x:t>1240181</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كنزى محمد احمد عبد القادر عاشور</x:t>
+  </x:si>
+  <x:si>
+    <x:t>kenzy mohamed ahmed</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240124</x:t>
   </x:si>
   <x:si>
@@ -400,6 +418,15 @@
   </x:si>
   <x:si>
     <x:t>Yahia Ahmed Saad Abdulhameed Shaheen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240164</x:t>
+  </x:si>
+  <x:si>
+    <x:t>يحيي وليد وفيق احمد حمدى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>yahia waleed wafeeq ahmed</x:t>
   </x:si>
   <x:si>
     <x:t>1240167</x:t>
@@ -566,7 +593,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E48" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -866,7 +893,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T48"/>
+  <x:dimension ref="A1:T51"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -957,7 +984,7 @@
         <x:v>7</x:v>
       </x:c>
       <x:c r="E2" s="3">
-        <x:v>45909.4155152431</x:v>
+        <x:v>45922.4972161227</x:v>
       </x:c>
       <x:c r="F2" s="2" t="s"/>
       <x:c r="G2" s="2" t="s"/>
@@ -989,7 +1016,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45915.8843071412</x:v>
+        <x:v>45909.4155152431</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -1021,7 +1048,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45907.6661513542</x:v>
+        <x:v>45915.8843071412</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -1053,7 +1080,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45907.6659107639</x:v>
+        <x:v>45907.6661513542</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -1085,7 +1112,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45907.6715134606</x:v>
+        <x:v>45907.6659107639</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1117,7 +1144,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45907.6695041319</x:v>
+        <x:v>45907.6715134606</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1149,7 +1176,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.665459456</x:v>
+        <x:v>45907.6695041319</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1181,7 +1208,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45915.9185113773</x:v>
+        <x:v>45907.665459456</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1213,7 +1240,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9031770833</x:v>
+        <x:v>45915.9185113773</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1245,7 +1272,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6691892014</x:v>
+        <x:v>45915.9031770833</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1277,7 +1304,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.4149533912</x:v>
+        <x:v>45907.6691892014</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1309,7 +1336,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45915.8776422454</x:v>
+        <x:v>45909.4149533912</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1341,7 +1368,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6705173958</x:v>
+        <x:v>45915.8776422454</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1373,7 +1400,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.9082424421</x:v>
+        <x:v>45907.6705173958</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1405,7 +1432,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45907.6659583681</x:v>
+        <x:v>45915.9082424421</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1437,7 +1464,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45907.6659583681</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1469,7 +1496,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45915.9055902778</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1501,7 +1528,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.9023376157</x:v>
+        <x:v>45915.9055902778</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1533,7 +1560,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.8820572917</x:v>
+        <x:v>45915.9023376157</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1565,7 +1592,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45915.9036212153</x:v>
+        <x:v>45915.8820572917</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1597,7 +1624,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45915.9036212153</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1629,7 +1656,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45915.8920447107</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1661,7 +1688,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6673411227</x:v>
+        <x:v>45915.8920447107</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1693,7 +1720,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45915.9140430556</x:v>
+        <x:v>45907.6673411227</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1725,7 +1752,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.8829773148</x:v>
+        <x:v>45915.9140430556</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1757,7 +1784,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45915.8829773148</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1789,7 +1816,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45915.9183887731</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1821,7 +1848,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6814164352</x:v>
+        <x:v>45922.4805341435</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1853,7 +1880,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6769587963</x:v>
+        <x:v>45915.9183887731</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1885,7 +1912,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45907.6814164352</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1917,7 +1944,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6769587963</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1949,7 +1976,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1981,7 +2008,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45915.9026436343</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2013,7 +2040,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45909.4177589931</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2045,7 +2072,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.9150893866</x:v>
+        <x:v>45915.9026436343</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2077,7 +2104,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45915.9017344907</x:v>
+        <x:v>45909.4177589931</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2109,7 +2136,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45909.4150851505</x:v>
+        <x:v>45915.9150893866</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2141,7 +2168,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45915.9017344907</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2173,7 +2200,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45915.904896412</x:v>
+        <x:v>45909.4150851505</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2205,7 +2232,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2237,7 +2264,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45907.6659834491</x:v>
+        <x:v>45915.904896412</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2269,7 +2296,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45909.4151321412</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2301,7 +2328,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45907.6659834491</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2333,7 +2360,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45922.4820610301</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2365,7 +2392,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45909.4151321412</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2397,7 +2424,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.4534393519</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2425,9 +2452,11 @@
       <x:c r="C48" s="2" t="s">
         <x:v>144</x:v>
       </x:c>
-      <x:c r="D48" s="2" t="s"/>
+      <x:c r="D48" s="2" t="s">
+        <x:v>145</x:v>
+      </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2444,6 +2473,100 @@
       <x:c r="R48" s="2" t="s"/>
       <x:c r="S48" s="2" t="s"/>
       <x:c r="T48" s="2" t="s"/>
+    </x:row>
+    <x:row r="49" spans="1:20">
+      <x:c r="A49" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B49" s="2" t="s">
+        <x:v>146</x:v>
+      </x:c>
+      <x:c r="C49" s="2" t="s">
+        <x:v>147</x:v>
+      </x:c>
+      <x:c r="D49" s="2" t="s">
+        <x:v>148</x:v>
+      </x:c>
+      <x:c r="E49" s="3">
+        <x:v>45907.6650471065</x:v>
+      </x:c>
+      <x:c r="F49" s="2" t="s"/>
+      <x:c r="G49" s="2" t="s"/>
+      <x:c r="H49" s="2" t="s"/>
+      <x:c r="I49" s="2" t="s"/>
+      <x:c r="J49" s="2" t="s"/>
+      <x:c r="K49" s="2" t="s"/>
+      <x:c r="L49" s="2" t="s"/>
+      <x:c r="M49" s="2" t="s"/>
+      <x:c r="N49" s="2" t="s"/>
+      <x:c r="O49" s="2" t="s"/>
+      <x:c r="P49" s="2" t="s"/>
+      <x:c r="Q49" s="2" t="s"/>
+      <x:c r="R49" s="2" t="s"/>
+      <x:c r="S49" s="2" t="s"/>
+      <x:c r="T49" s="2" t="s"/>
+    </x:row>
+    <x:row r="50" spans="1:20">
+      <x:c r="A50" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B50" s="2" t="s">
+        <x:v>149</x:v>
+      </x:c>
+      <x:c r="C50" s="2" t="s">
+        <x:v>150</x:v>
+      </x:c>
+      <x:c r="D50" s="2" t="s">
+        <x:v>151</x:v>
+      </x:c>
+      <x:c r="E50" s="3">
+        <x:v>45907.4534393519</x:v>
+      </x:c>
+      <x:c r="F50" s="2" t="s"/>
+      <x:c r="G50" s="2" t="s"/>
+      <x:c r="H50" s="2" t="s"/>
+      <x:c r="I50" s="2" t="s"/>
+      <x:c r="J50" s="2" t="s"/>
+      <x:c r="K50" s="2" t="s"/>
+      <x:c r="L50" s="2" t="s"/>
+      <x:c r="M50" s="2" t="s"/>
+      <x:c r="N50" s="2" t="s"/>
+      <x:c r="O50" s="2" t="s"/>
+      <x:c r="P50" s="2" t="s"/>
+      <x:c r="Q50" s="2" t="s"/>
+      <x:c r="R50" s="2" t="s"/>
+      <x:c r="S50" s="2" t="s"/>
+      <x:c r="T50" s="2" t="s"/>
+    </x:row>
+    <x:row r="51" spans="1:20">
+      <x:c r="A51" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B51" s="2" t="s">
+        <x:v>152</x:v>
+      </x:c>
+      <x:c r="C51" s="2" t="s">
+        <x:v>153</x:v>
+      </x:c>
+      <x:c r="D51" s="2" t="s"/>
+      <x:c r="E51" s="3">
+        <x:v>45907.6661684375</x:v>
+      </x:c>
+      <x:c r="F51" s="2" t="s"/>
+      <x:c r="G51" s="2" t="s"/>
+      <x:c r="H51" s="2" t="s"/>
+      <x:c r="I51" s="2" t="s"/>
+      <x:c r="J51" s="2" t="s"/>
+      <x:c r="K51" s="2" t="s"/>
+      <x:c r="L51" s="2" t="s"/>
+      <x:c r="M51" s="2" t="s"/>
+      <x:c r="N51" s="2" t="s"/>
+      <x:c r="O51" s="2" t="s"/>
+      <x:c r="P51" s="2" t="s"/>
+      <x:c r="Q51" s="2" t="s"/>
+      <x:c r="R51" s="2" t="s"/>
+      <x:c r="S51" s="2" t="s"/>
+      <x:c r="T51" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35066.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35066.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -220,6 +220,15 @@
   </x:si>
   <x:si>
     <x:t>ٍSalma Hany Mohamed Azez</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240321</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سيف هيثم مجدى محمد فوزي عبد الله</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Seif Haitham Magdy Fawzy</x:t>
   </x:si>
   <x:si>
     <x:t>1240229</x:t>
@@ -593,7 +602,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E51" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E52" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -893,7 +902,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T51"/>
+  <x:dimension ref="A1:T52"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1656,7 +1665,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6655027431</x:v>
+        <x:v>45924.904746875</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1688,7 +1697,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45915.8920447107</x:v>
+        <x:v>45907.6655027431</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1720,7 +1729,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6673411227</x:v>
+        <x:v>45915.8920447107</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1752,7 +1761,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45915.9140430556</x:v>
+        <x:v>45907.6673411227</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1784,7 +1793,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45915.8829773148</x:v>
+        <x:v>45915.9140430556</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1816,7 +1825,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.666205787</x:v>
+        <x:v>45915.8829773148</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1848,7 +1857,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45922.4805341435</x:v>
+        <x:v>45907.666205787</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1880,7 +1889,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45915.9183887731</x:v>
+        <x:v>45922.4805341435</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1912,7 +1921,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6814164352</x:v>
+        <x:v>45915.9183887731</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1944,7 +1953,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45907.6769587963</x:v>
+        <x:v>45907.6814164352</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1976,7 +1985,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45907.6646943634</x:v>
+        <x:v>45907.6769587963</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -2008,7 +2017,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45907.6648425926</x:v>
+        <x:v>45907.6646943634</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -2040,7 +2049,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45907.6655096875</x:v>
+        <x:v>45907.6648425926</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -2072,7 +2081,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45915.9026436343</x:v>
+        <x:v>45907.6655096875</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -2104,7 +2113,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45909.4177589931</x:v>
+        <x:v>45915.9026436343</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2136,7 +2145,7 @@
         <x:v>115</x:v>
       </x:c>
       <x:c r="E38" s="3">
-        <x:v>45915.9150893866</x:v>
+        <x:v>45909.4177589931</x:v>
       </x:c>
       <x:c r="F38" s="2" t="s"/>
       <x:c r="G38" s="2" t="s"/>
@@ -2168,7 +2177,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="E39" s="3">
-        <x:v>45915.9017344907</x:v>
+        <x:v>45915.9150893866</x:v>
       </x:c>
       <x:c r="F39" s="2" t="s"/>
       <x:c r="G39" s="2" t="s"/>
@@ -2200,7 +2209,7 @@
         <x:v>121</x:v>
       </x:c>
       <x:c r="E40" s="3">
-        <x:v>45909.4150851505</x:v>
+        <x:v>45915.9017344907</x:v>
       </x:c>
       <x:c r="F40" s="2" t="s"/>
       <x:c r="G40" s="2" t="s"/>
@@ -2232,7 +2241,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="E41" s="3">
-        <x:v>45907.6657707176</x:v>
+        <x:v>45909.4150851505</x:v>
       </x:c>
       <x:c r="F41" s="2" t="s"/>
       <x:c r="G41" s="2" t="s"/>
@@ -2264,7 +2273,7 @@
         <x:v>127</x:v>
       </x:c>
       <x:c r="E42" s="3">
-        <x:v>45915.904896412</x:v>
+        <x:v>45907.6657707176</x:v>
       </x:c>
       <x:c r="F42" s="2" t="s"/>
       <x:c r="G42" s="2" t="s"/>
@@ -2296,7 +2305,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="E43" s="3">
-        <x:v>45907.6646742245</x:v>
+        <x:v>45915.904896412</x:v>
       </x:c>
       <x:c r="F43" s="2" t="s"/>
       <x:c r="G43" s="2" t="s"/>
@@ -2328,7 +2337,7 @@
         <x:v>133</x:v>
       </x:c>
       <x:c r="E44" s="3">
-        <x:v>45907.6659834491</x:v>
+        <x:v>45907.6646742245</x:v>
       </x:c>
       <x:c r="F44" s="2" t="s"/>
       <x:c r="G44" s="2" t="s"/>
@@ -2360,7 +2369,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="E45" s="3">
-        <x:v>45922.4820610301</x:v>
+        <x:v>45907.6659834491</x:v>
       </x:c>
       <x:c r="F45" s="2" t="s"/>
       <x:c r="G45" s="2" t="s"/>
@@ -2392,7 +2401,7 @@
         <x:v>139</x:v>
       </x:c>
       <x:c r="E46" s="3">
-        <x:v>45909.4151321412</x:v>
+        <x:v>45922.4820610301</x:v>
       </x:c>
       <x:c r="F46" s="2" t="s"/>
       <x:c r="G46" s="2" t="s"/>
@@ -2424,7 +2433,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="E47" s="3">
-        <x:v>45907.6655123843</x:v>
+        <x:v>45909.4151321412</x:v>
       </x:c>
       <x:c r="F47" s="2" t="s"/>
       <x:c r="G47" s="2" t="s"/>
@@ -2456,7 +2465,7 @@
         <x:v>145</x:v>
       </x:c>
       <x:c r="E48" s="3">
-        <x:v>45907.6646291667</x:v>
+        <x:v>45907.6655123843</x:v>
       </x:c>
       <x:c r="F48" s="2" t="s"/>
       <x:c r="G48" s="2" t="s"/>
@@ -2488,7 +2497,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="E49" s="3">
-        <x:v>45907.6650471065</x:v>
+        <x:v>45907.6646291667</x:v>
       </x:c>
       <x:c r="F49" s="2" t="s"/>
       <x:c r="G49" s="2" t="s"/>
@@ -2520,7 +2529,7 @@
         <x:v>151</x:v>
       </x:c>
       <x:c r="E50" s="3">
-        <x:v>45907.4534393519</x:v>
+        <x:v>45907.6650471065</x:v>
       </x:c>
       <x:c r="F50" s="2" t="s"/>
       <x:c r="G50" s="2" t="s"/>
@@ -2548,9 +2557,11 @@
       <x:c r="C51" s="2" t="s">
         <x:v>153</x:v>
       </x:c>
-      <x:c r="D51" s="2" t="s"/>
+      <x:c r="D51" s="2" t="s">
+        <x:v>154</x:v>
+      </x:c>
       <x:c r="E51" s="3">
-        <x:v>45907.6661684375</x:v>
+        <x:v>45907.4534393519</x:v>
       </x:c>
       <x:c r="F51" s="2" t="s"/>
       <x:c r="G51" s="2" t="s"/>
@@ -2567,6 +2578,36 @@
       <x:c r="R51" s="2" t="s"/>
       <x:c r="S51" s="2" t="s"/>
       <x:c r="T51" s="2" t="s"/>
+    </x:row>
+    <x:row r="52" spans="1:20">
+      <x:c r="A52" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B52" s="2" t="s">
+        <x:v>155</x:v>
+      </x:c>
+      <x:c r="C52" s="2" t="s">
+        <x:v>156</x:v>
+      </x:c>
+      <x:c r="D52" s="2" t="s"/>
+      <x:c r="E52" s="3">
+        <x:v>45907.6661684375</x:v>
+      </x:c>
+      <x:c r="F52" s="2" t="s"/>
+      <x:c r="G52" s="2" t="s"/>
+      <x:c r="H52" s="2" t="s"/>
+      <x:c r="I52" s="2" t="s"/>
+      <x:c r="J52" s="2" t="s"/>
+      <x:c r="K52" s="2" t="s"/>
+      <x:c r="L52" s="2" t="s"/>
+      <x:c r="M52" s="2" t="s"/>
+      <x:c r="N52" s="2" t="s"/>
+      <x:c r="O52" s="2" t="s"/>
+      <x:c r="P52" s="2" t="s"/>
+      <x:c r="Q52" s="2" t="s"/>
+      <x:c r="R52" s="2" t="s"/>
+      <x:c r="S52" s="2" t="s"/>
+      <x:c r="T52" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/MTHS102_Tutorial-35066.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35066.xlsx
@@ -105,15 +105,6 @@
     <x:t>Basel Mahmoud Younes Ahmed Mouhamed</x:t>
   </x:si>
   <x:si>
-    <x:t>1240040</x:t>
-  </x:si>
-  <x:si>
-    <x:t>بيتر اشعياء شحاته فهمي يونان</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Peter Asheiaa Shehata Fahmi Younan</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240212</x:t>
   </x:si>
   <x:si>
@@ -202,6 +193,15 @@
   </x:si>
   <x:si>
     <x:t>Serageldeen Atef Gamal Mohamed Othman</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>سلمى علاء حسين الشافعى حسين</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Salma Alaa Hussein Elshafey</x:t>
   </x:si>
   <x:si>
     <x:t>1240320</x:t>
@@ -1249,7 +1249,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45915.9185113773</x:v>
+        <x:v>45915.9031770833</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1281,7 +1281,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45915.9031770833</x:v>
+        <x:v>45907.6691892014</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1313,7 +1313,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6691892014</x:v>
+        <x:v>45909.4149533912</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1345,7 +1345,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45909.4149533912</x:v>
+        <x:v>45915.8776422454</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1377,7 +1377,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45915.8776422454</x:v>
+        <x:v>45907.6705173958</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1409,7 +1409,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6705173958</x:v>
+        <x:v>45915.9082424421</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1441,7 +1441,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9082424421</x:v>
+        <x:v>45907.6659583681</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1473,7 +1473,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45907.6659583681</x:v>
+        <x:v>45907.6655622685</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1505,7 +1505,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6655622685</x:v>
+        <x:v>45915.9055902778</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1537,7 +1537,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45915.9055902778</x:v>
+        <x:v>45915.9023376157</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1569,7 +1569,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45915.9023376157</x:v>
+        <x:v>45930.3148636227</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>

--- a/downloaded_files/MTHS102_Tutorial-35066.xlsx
+++ b/downloaded_files/MTHS102_Tutorial-35066.xlsx
@@ -417,7 +417,7 @@
     <x:t>هنا ايمن عبداللطيف عبدالحميد احمد سلام</x:t>
   </x:si>
   <x:si>
-    <x:t>Hana Ayman Abdellatif</x:t>
+    <x:t>Hana Ayman Abdellatif Abdelhamed Ahmed Sallam</x:t>
   </x:si>
   <x:si>
     <x:t>1240162</x:t>
